--- a/data/trans_orig/P70C2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70C2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53BC690B-3320-490D-A693-2EF6C23BD034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4C48A8D-56A0-40B7-B8EC-6C66639A5F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E85F75C5-2AE4-416B-A4C9-D6C9F2B4D9F2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C4D50BC6-C0EB-4309-925C-62FCB91F6286}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="458">
   <si>
     <t>Población según si le es dificil cumplir con las obligaciones familiares debido al tiempo que paso en el trabajo en 2023 (Tasa respuesta: 42,47%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>89,59%</t>
   </si>
   <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
   </si>
   <si>
     <t>84,86%</t>
   </si>
   <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
   </si>
   <si>
     <t>87,45%</t>
   </si>
   <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
   </si>
   <si>
     <t>Con menos frecuencia /raramente</t>
@@ -104,1336 +104,1309 @@
     <t>5,51%</t>
   </si>
   <si>
-    <t>2,67%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>Varias veces al año</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>Varias veces al mes</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>Varias veces a la semana</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
   </si>
   <si>
     <t>10,53%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>Varias veces al año</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>Varias veces al mes</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>Varias veces a la semana</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
   </si>
   <si>
     <t>23,18%</t>
   </si>
   <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
   </si>
   <si>
     <t>6,69%</t>
   </si>
   <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
   </si>
   <si>
     <t>5,18%</t>
   </si>
   <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1848,7 +1821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF03C17-BBE3-49C7-8DC6-3270E7A82A67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E38960-2B60-48DB-B26D-F71DBE38CB37}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2161,13 +2134,13 @@
         <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2176,13 +2149,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2191,13 +2164,13 @@
         <v>419</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2206,19 +2179,19 @@
         <v>419</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -2227,13 +2200,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2242,13 +2215,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -2257,13 +2230,13 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,13 +2251,13 @@
         <v>162959</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>257</v>
@@ -2293,13 +2266,13 @@
         <v>134890</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>459</v>
@@ -2308,18 +2281,18 @@
         <v>297849</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -2331,13 +2304,13 @@
         <v>112386</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>93</v>
@@ -2346,13 +2319,13 @@
         <v>75991</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>178</v>
@@ -2361,13 +2334,13 @@
         <v>188377</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,13 +2355,13 @@
         <v>33720</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -2397,13 +2370,13 @@
         <v>25189</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>51</v>
@@ -2412,13 +2385,13 @@
         <v>58909</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,13 +2406,13 @@
         <v>33913</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -2448,13 +2421,13 @@
         <v>14279</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -2463,13 +2436,13 @@
         <v>48192</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,13 +2457,13 @@
         <v>51246</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -2499,13 +2472,13 @@
         <v>36098</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>74</v>
@@ -2514,19 +2487,19 @@
         <v>87344</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="7">
         <v>9</v>
@@ -2535,13 +2508,13 @@
         <v>9099</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>22</v>
@@ -2550,13 +2523,13 @@
         <v>19188</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>31</v>
@@ -2565,19 +2538,19 @@
         <v>28287</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="7">
         <v>5</v>
@@ -2586,13 +2559,13 @@
         <v>6967</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -2601,13 +2574,13 @@
         <v>9169</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -2616,13 +2589,13 @@
         <v>16136</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,13 +2610,13 @@
         <v>247330</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H17" s="7">
         <v>215</v>
@@ -2652,13 +2625,13 @@
         <v>179914</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M17" s="7">
         <v>388</v>
@@ -2667,18 +2640,18 @@
         <v>427244</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2690,13 +2663,13 @@
         <v>58456</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>77</v>
@@ -2705,13 +2678,13 @@
         <v>62716</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>137</v>
@@ -2720,13 +2693,13 @@
         <v>121172</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,13 +2714,13 @@
         <v>34242</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -2756,13 +2729,13 @@
         <v>21656</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -2771,13 +2744,13 @@
         <v>55898</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,13 +2765,13 @@
         <v>21463</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -2807,13 +2780,13 @@
         <v>14561</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>40</v>
@@ -2822,13 +2795,13 @@
         <v>36024</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,13 +2816,13 @@
         <v>16511</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -2858,13 +2831,13 @@
         <v>12913</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>36</v>
@@ -2873,19 +2846,19 @@
         <v>29424</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="7">
         <v>15</v>
@@ -2894,13 +2867,13 @@
         <v>14095</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -2909,13 +2882,13 @@
         <v>13737</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -2924,19 +2897,19 @@
         <v>27832</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23" s="7">
         <v>7</v>
@@ -2945,13 +2918,13 @@
         <v>6395</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -2960,13 +2933,13 @@
         <v>2811</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -2978,10 +2951,10 @@
         <v>44</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,13 +2969,13 @@
         <v>151163</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H24" s="7">
         <v>169</v>
@@ -3011,13 +2984,13 @@
         <v>128393</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M24" s="7">
         <v>321</v>
@@ -3026,18 +2999,18 @@
         <v>279556</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3049,13 +3022,13 @@
         <v>94948</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>100</v>
@@ -3064,13 +3037,13 @@
         <v>110464</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>165</v>
@@ -3079,13 +3052,13 @@
         <v>205411</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,13 +3073,13 @@
         <v>24209</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H26" s="7">
         <v>38</v>
@@ -3115,13 +3088,13 @@
         <v>31137</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>63</v>
@@ -3130,13 +3103,13 @@
         <v>55345</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,13 +3124,13 @@
         <v>8999</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H27" s="7">
         <v>12</v>
@@ -3166,13 +3139,13 @@
         <v>8921</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="M27" s="7">
         <v>19</v>
@@ -3181,13 +3154,13 @@
         <v>17920</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>73</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,13 +3175,13 @@
         <v>15615</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>196</v>
+        <v>86</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -3217,13 +3190,13 @@
         <v>13107</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M28" s="7">
         <v>28</v>
@@ -3232,19 +3205,19 @@
         <v>28721</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="7">
         <v>9</v>
@@ -3253,13 +3226,13 @@
         <v>16008</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>22</v>
@@ -3268,13 +3241,13 @@
         <v>22958</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>31</v>
@@ -3283,19 +3256,19 @@
         <v>38965</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" s="7">
         <v>10</v>
@@ -3304,13 +3277,13 @@
         <v>13240</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -3319,13 +3292,13 @@
         <v>7249</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>21</v>
@@ -3334,13 +3307,13 @@
         <v>20489</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,13 +3328,13 @@
         <v>173018</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H31" s="7">
         <v>201</v>
@@ -3370,13 +3343,13 @@
         <v>193835</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M31" s="7">
         <v>327</v>
@@ -3385,18 +3358,18 @@
         <v>366852</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3408,13 +3381,13 @@
         <v>14351</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -3423,13 +3396,13 @@
         <v>10927</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M32" s="7">
         <v>38</v>
@@ -3438,13 +3411,13 @@
         <v>25279</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3432,13 @@
         <v>82752</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H33" s="7">
         <v>190</v>
@@ -3474,13 +3447,13 @@
         <v>92762</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M33" s="7">
         <v>303</v>
@@ -3489,13 +3462,13 @@
         <v>175514</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,13 +3483,13 @@
         <v>15953</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H34" s="7">
         <v>18</v>
@@ -3525,13 +3498,13 @@
         <v>9373</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M34" s="7">
         <v>40</v>
@@ -3540,13 +3513,13 @@
         <v>25327</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3534,13 @@
         <v>9491</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H35" s="7">
         <v>10</v>
@@ -3576,13 +3549,13 @@
         <v>3971</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M35" s="7">
         <v>23</v>
@@ -3591,19 +3564,19 @@
         <v>13462</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>153</v>
+        <v>249</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="7">
         <v>3</v>
@@ -3612,13 +3585,13 @@
         <v>2479</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
@@ -3627,13 +3600,13 @@
         <v>1247</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="M36" s="7">
         <v>7</v>
@@ -3642,19 +3615,19 @@
         <v>3726</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -3663,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="G37" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3678,13 +3651,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="L37" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3693,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P37" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="Q37" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,13 +3687,13 @@
         <v>125027</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H38" s="7">
         <v>240</v>
@@ -3729,13 +3702,13 @@
         <v>118281</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M38" s="7">
         <v>411</v>
@@ -3744,18 +3717,18 @@
         <v>243308</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3767,13 +3740,13 @@
         <v>50810</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H39" s="7">
         <v>53</v>
@@ -3782,13 +3755,13 @@
         <v>40225</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M39" s="7">
         <v>108</v>
@@ -3797,13 +3770,13 @@
         <v>91035</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,13 +3791,13 @@
         <v>21286</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H40" s="7">
         <v>26</v>
@@ -3833,13 +3806,13 @@
         <v>17937</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M40" s="7">
         <v>51</v>
@@ -3848,13 +3821,13 @@
         <v>39223</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,13 +3842,13 @@
         <v>14399</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H41" s="7">
         <v>13</v>
@@ -3884,13 +3857,13 @@
         <v>9300</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M41" s="7">
         <v>29</v>
@@ -3899,13 +3872,13 @@
         <v>23699</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>291</v>
+        <v>23</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,13 +3893,13 @@
         <v>24178</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>295</v>
+        <v>83</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H42" s="7">
         <v>24</v>
@@ -3935,13 +3908,13 @@
         <v>17770</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M42" s="7">
         <v>51</v>
@@ -3950,19 +3923,19 @@
         <v>41948</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="7">
         <v>22</v>
@@ -3971,13 +3944,13 @@
         <v>19684</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H43" s="7">
         <v>10</v>
@@ -3986,13 +3959,13 @@
         <v>6494</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>306</v>
+        <v>156</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M43" s="7">
         <v>32</v>
@@ -4001,19 +3974,19 @@
         <v>26177</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C44" s="7">
         <v>9</v>
@@ -4022,13 +3995,13 @@
         <v>7502</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="H44" s="7">
         <v>3</v>
@@ -4037,13 +4010,13 @@
         <v>1219</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="M44" s="7">
         <v>12</v>
@@ -4052,13 +4025,13 @@
         <v>8721</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4046,13 @@
         <v>137858</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H45" s="7">
         <v>129</v>
@@ -4088,13 +4061,13 @@
         <v>92945</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M45" s="7">
         <v>283</v>
@@ -4103,18 +4076,18 @@
         <v>230803</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4126,13 +4099,13 @@
         <v>172588</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="H46" s="7">
         <v>252</v>
@@ -4141,13 +4114,13 @@
         <v>189432</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="M46" s="7">
         <v>418</v>
@@ -4156,13 +4129,13 @@
         <v>362020</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,13 +4150,13 @@
         <v>82739</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H47" s="7">
         <v>84</v>
@@ -4192,13 +4165,13 @@
         <v>57658</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="M47" s="7">
         <v>160</v>
@@ -4207,13 +4180,13 @@
         <v>140397</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,13 +4201,13 @@
         <v>23962</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="H48" s="7">
         <v>25</v>
@@ -4243,13 +4216,13 @@
         <v>17024</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="M48" s="7">
         <v>43</v>
@@ -4258,13 +4231,13 @@
         <v>40986</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,13 +4252,13 @@
         <v>26793</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="H49" s="7">
         <v>36</v>
@@ -4294,13 +4267,13 @@
         <v>26573</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="M49" s="7">
         <v>61</v>
@@ -4309,19 +4282,19 @@
         <v>53365</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>353</v>
+        <v>282</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" s="7">
         <v>16</v>
@@ -4330,13 +4303,13 @@
         <v>18788</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>355</v>
+        <v>247</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="H50" s="7">
         <v>34</v>
@@ -4345,13 +4318,13 @@
         <v>24119</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>357</v>
+        <v>98</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="M50" s="7">
         <v>50</v>
@@ -4360,19 +4333,19 @@
         <v>42907</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" s="7">
         <v>13</v>
@@ -4381,13 +4354,13 @@
         <v>10980</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>365</v>
+        <v>221</v>
       </c>
       <c r="H51" s="7">
         <v>19</v>
@@ -4396,13 +4369,13 @@
         <v>12395</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>109</v>
+        <v>356</v>
       </c>
       <c r="M51" s="7">
         <v>32</v>
@@ -4411,13 +4384,13 @@
         <v>23375</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4405,13 @@
         <v>335849</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H52" s="7">
         <v>450</v>
@@ -4447,13 +4420,13 @@
         <v>327201</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M52" s="7">
         <v>764</v>
@@ -4462,18 +4435,18 @@
         <v>663050</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
@@ -4485,13 +4458,13 @@
         <v>286136</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="H53" s="7">
         <v>162</v>
@@ -4500,13 +4473,13 @@
         <v>139490</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="M53" s="7">
         <v>358</v>
@@ -4515,13 +4488,13 @@
         <v>425626</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4536,13 +4509,13 @@
         <v>137769</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="H54" s="7">
         <v>111</v>
@@ -4551,13 +4524,13 @@
         <v>96605</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="M54" s="7">
         <v>228</v>
@@ -4566,13 +4539,13 @@
         <v>234375</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4560,13 @@
         <v>32113</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>25</v>
+        <v>380</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="H55" s="7">
         <v>55</v>
@@ -4602,13 +4575,13 @@
         <v>45528</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="M55" s="7">
         <v>86</v>
@@ -4617,13 +4590,13 @@
         <v>77641</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>136</v>
+        <v>385</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>395</v>
+        <v>156</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,13 +4611,13 @@
         <v>22565</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>397</v>
+        <v>103</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>145</v>
+        <v>388</v>
       </c>
       <c r="H56" s="7">
         <v>24</v>
@@ -4653,13 +4626,13 @@
         <v>20229</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>399</v>
+        <v>112</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="M56" s="7">
         <v>44</v>
@@ -4668,19 +4641,19 @@
         <v>42795</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>402</v>
+        <v>348</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C57" s="7">
         <v>14</v>
@@ -4689,13 +4662,13 @@
         <v>16759</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="H57" s="7">
         <v>17</v>
@@ -4704,13 +4677,13 @@
         <v>14088</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="M57" s="7">
         <v>31</v>
@@ -4719,19 +4692,19 @@
         <v>30847</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>411</v>
+        <v>109</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C58" s="7">
         <v>6</v>
@@ -4740,13 +4713,13 @@
         <v>7965</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>38</v>
+        <v>399</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H58" s="7">
         <v>7</v>
@@ -4755,13 +4728,13 @@
         <v>12117</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="M58" s="7">
         <v>13</v>
@@ -4770,13 +4743,13 @@
         <v>20082</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>419</v>
+        <v>259</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>353</v>
+        <v>406</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,13 +4764,13 @@
         <v>503308</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H59" s="7">
         <v>376</v>
@@ -4806,13 +4779,13 @@
         <v>328058</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M59" s="7">
         <v>760</v>
@@ -4821,13 +4794,13 @@
         <v>831366</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,13 +4817,13 @@
         <v>935672</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="H60" s="7">
         <v>972</v>
@@ -4859,13 +4832,13 @@
         <v>743712</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="M60" s="7">
         <v>1798</v>
@@ -4874,13 +4847,13 @@
         <v>1679384</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,13 +4868,13 @@
         <v>425697</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>131</v>
+        <v>416</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>137</v>
+        <v>417</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="H61" s="7">
         <v>523</v>
@@ -4910,13 +4883,13 @@
         <v>352091</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="M61" s="7">
         <v>944</v>
@@ -4925,13 +4898,13 @@
         <v>777788</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>434</v>
+        <v>280</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,13 +4919,13 @@
         <v>152667</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>438</v>
+        <v>155</v>
       </c>
       <c r="H62" s="7">
         <v>174</v>
@@ -4961,13 +4934,13 @@
         <v>125405</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>345</v>
+        <v>426</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="M62" s="7">
         <v>313</v>
@@ -4976,13 +4949,13 @@
         <v>278072</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>227</v>
+        <v>430</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>441</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,13 +4970,13 @@
         <v>172515</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="H63" s="7">
         <v>184</v>
@@ -5012,13 +4985,13 @@
         <v>135099</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="M63" s="7">
         <v>336</v>
@@ -5027,19 +5000,19 @@
         <v>307614</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C64" s="7">
         <v>88</v>
@@ -5048,13 +5021,13 @@
         <v>96911</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="H64" s="7">
         <v>130</v>
@@ -5063,13 +5036,13 @@
         <v>102250</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="M64" s="7">
         <v>218</v>
@@ -5078,19 +5051,19 @@
         <v>199160</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C65" s="7">
         <v>50</v>
@@ -5099,13 +5072,13 @@
         <v>53049</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="H65" s="7">
         <v>54</v>
@@ -5114,13 +5087,13 @@
         <v>44959</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="M65" s="7">
         <v>104</v>
@@ -5129,13 +5102,13 @@
         <v>98008</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,13 +5123,13 @@
         <v>1836511</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H66" s="7">
         <v>2037</v>
@@ -5165,13 +5138,13 @@
         <v>1503516</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M66" s="7">
         <v>3713</v>
@@ -5180,18 +5153,18 @@
         <v>3340027</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70C2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70C2_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4C48A8D-56A0-40B7-B8EC-6C66639A5F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{806ACB39-4E48-4DBF-B63E-2415FA289690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C4D50BC6-C0EB-4309-925C-62FCB91F6286}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BAB76680-F362-44C1-BC90-C006F4D42EA2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1821,7 +1821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E38960-2B60-48DB-B26D-F71DBE38CB37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C867F5D-5D41-4D20-A6A0-A1A0A3C517D8}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70C2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70C2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{806ACB39-4E48-4DBF-B63E-2415FA289690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B60B7E3-BBBB-440A-BE56-398F7C67C8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BAB76680-F362-44C1-BC90-C006F4D42EA2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5968B3F3-8E3C-4FBE-A810-402C0A3135E4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="467">
   <si>
     <t>Población según si le es dificil cumplir con las obligaciones familiares debido al tiempo que paso en el trabajo en 2023 (Tasa respuesta: 42,47%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>89,59%</t>
   </si>
   <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
   </si>
   <si>
     <t>84,86%</t>
   </si>
   <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
   </si>
   <si>
     <t>87,45%</t>
   </si>
   <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
   </si>
   <si>
     <t>Con menos frecuencia /raramente</t>
@@ -104,1309 +104,1336 @@
     <t>5,51%</t>
   </si>
   <si>
-    <t>2,44%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>Varias veces al año</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>Varias veces al mes</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>Varias veces a la semana</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
   </si>
   <si>
     <t>10,27%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
   </si>
   <si>
     <t>3,84%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>Varias veces al año</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>Varias veces al mes</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>Varias veces a la semana</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1821,7 +1848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C867F5D-5D41-4D20-A6A0-A1A0A3C517D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7D9381-B9A6-424D-9086-18D9599B423C}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2134,13 +2161,13 @@
         <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2149,13 +2176,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2164,13 +2191,13 @@
         <v>419</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2179,19 +2206,19 @@
         <v>419</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -2200,13 +2227,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2215,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -2230,13 +2257,13 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2251,13 +2278,13 @@
         <v>162959</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>257</v>
@@ -2266,13 +2293,13 @@
         <v>134890</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>459</v>
@@ -2281,18 +2308,18 @@
         <v>297849</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -2304,13 +2331,13 @@
         <v>112386</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>93</v>
@@ -2319,13 +2346,13 @@
         <v>75991</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>178</v>
@@ -2334,13 +2361,13 @@
         <v>188377</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,13 +2382,13 @@
         <v>33720</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -2370,13 +2397,13 @@
         <v>25189</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>51</v>
@@ -2385,13 +2412,13 @@
         <v>58909</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,13 +2433,13 @@
         <v>33913</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -2421,13 +2448,13 @@
         <v>14279</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -2436,13 +2463,13 @@
         <v>48192</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2457,13 +2484,13 @@
         <v>51246</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -2472,13 +2499,13 @@
         <v>36098</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>74</v>
@@ -2487,19 +2514,19 @@
         <v>87344</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="7">
         <v>9</v>
@@ -2508,13 +2535,13 @@
         <v>9099</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>22</v>
@@ -2523,13 +2550,13 @@
         <v>19188</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>31</v>
@@ -2538,19 +2565,19 @@
         <v>28287</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C16" s="7">
         <v>5</v>
@@ -2559,13 +2586,13 @@
         <v>6967</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -2574,13 +2601,13 @@
         <v>9169</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -2589,13 +2616,13 @@
         <v>16136</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,13 +2637,13 @@
         <v>247330</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H17" s="7">
         <v>215</v>
@@ -2625,13 +2652,13 @@
         <v>179914</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M17" s="7">
         <v>388</v>
@@ -2640,18 +2667,18 @@
         <v>427244</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2663,13 +2690,13 @@
         <v>58456</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H18" s="7">
         <v>77</v>
@@ -2678,13 +2705,13 @@
         <v>62716</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M18" s="7">
         <v>137</v>
@@ -2693,13 +2720,13 @@
         <v>121172</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,13 +2741,13 @@
         <v>34242</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -2729,13 +2756,13 @@
         <v>21656</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -2744,13 +2771,13 @@
         <v>55898</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,13 +2792,13 @@
         <v>21463</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -2780,13 +2807,13 @@
         <v>14561</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>40</v>
@@ -2795,13 +2822,13 @@
         <v>36024</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,13 +2843,13 @@
         <v>16511</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -2831,13 +2858,13 @@
         <v>12913</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>36</v>
@@ -2846,19 +2873,19 @@
         <v>29424</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="7">
         <v>15</v>
@@ -2867,13 +2894,13 @@
         <v>14095</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -2882,13 +2909,13 @@
         <v>13737</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -2897,19 +2924,19 @@
         <v>27832</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C23" s="7">
         <v>7</v>
@@ -2918,13 +2945,13 @@
         <v>6395</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -2933,13 +2960,13 @@
         <v>2811</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -2951,10 +2978,10 @@
         <v>44</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2996,13 @@
         <v>151163</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H24" s="7">
         <v>169</v>
@@ -2984,13 +3011,13 @@
         <v>128393</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M24" s="7">
         <v>321</v>
@@ -2999,18 +3026,18 @@
         <v>279556</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3022,13 +3049,13 @@
         <v>94948</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>100</v>
@@ -3037,13 +3064,13 @@
         <v>110464</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>165</v>
@@ -3052,13 +3079,13 @@
         <v>205411</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3100,13 @@
         <v>24209</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>38</v>
@@ -3088,13 +3115,13 @@
         <v>31137</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>63</v>
@@ -3103,13 +3130,13 @@
         <v>55345</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3151,13 @@
         <v>8999</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>12</v>
@@ -3139,13 +3166,13 @@
         <v>8921</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>188</v>
+        <v>84</v>
       </c>
       <c r="M27" s="7">
         <v>19</v>
@@ -3154,13 +3181,13 @@
         <v>17920</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>37</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>175</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,13 +3202,13 @@
         <v>15615</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>86</v>
+        <v>196</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -3190,13 +3217,13 @@
         <v>13107</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M28" s="7">
         <v>28</v>
@@ -3205,19 +3232,19 @@
         <v>28721</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="7">
         <v>9</v>
@@ -3226,13 +3253,13 @@
         <v>16008</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H29" s="7">
         <v>22</v>
@@ -3241,13 +3268,13 @@
         <v>22958</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M29" s="7">
         <v>31</v>
@@ -3256,19 +3283,19 @@
         <v>38965</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C30" s="7">
         <v>10</v>
@@ -3277,13 +3304,13 @@
         <v>13240</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -3292,13 +3319,13 @@
         <v>7249</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M30" s="7">
         <v>21</v>
@@ -3307,13 +3334,13 @@
         <v>20489</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3355,13 @@
         <v>173018</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H31" s="7">
         <v>201</v>
@@ -3343,13 +3370,13 @@
         <v>193835</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M31" s="7">
         <v>327</v>
@@ -3358,18 +3385,18 @@
         <v>366852</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3381,13 +3408,13 @@
         <v>14351</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -3396,13 +3423,13 @@
         <v>10927</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>38</v>
@@ -3411,13 +3438,13 @@
         <v>25279</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3459,13 @@
         <v>82752</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H33" s="7">
         <v>190</v>
@@ -3447,13 +3474,13 @@
         <v>92762</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M33" s="7">
         <v>303</v>
@@ -3462,13 +3489,13 @@
         <v>175514</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3510,13 @@
         <v>15953</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>236</v>
+        <v>36</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>18</v>
@@ -3498,13 +3525,13 @@
         <v>9373</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M34" s="7">
         <v>40</v>
@@ -3513,13 +3540,13 @@
         <v>25327</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,13 +3561,13 @@
         <v>9491</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H35" s="7">
         <v>10</v>
@@ -3549,13 +3576,13 @@
         <v>3971</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>42</v>
+        <v>250</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M35" s="7">
         <v>23</v>
@@ -3564,19 +3591,19 @@
         <v>13462</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>249</v>
+        <v>153</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" s="7">
         <v>3</v>
@@ -3585,13 +3612,13 @@
         <v>2479</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
@@ -3600,13 +3627,13 @@
         <v>1247</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="M36" s="7">
         <v>7</v>
@@ -3615,19 +3642,19 @@
         <v>3726</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -3636,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3651,13 +3678,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3666,13 +3693,13 @@
         <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,13 +3714,13 @@
         <v>125027</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H38" s="7">
         <v>240</v>
@@ -3702,13 +3729,13 @@
         <v>118281</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M38" s="7">
         <v>411</v>
@@ -3717,18 +3744,18 @@
         <v>243308</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3740,13 +3767,13 @@
         <v>50810</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H39" s="7">
         <v>53</v>
@@ -3755,13 +3782,13 @@
         <v>40225</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M39" s="7">
         <v>108</v>
@@ -3770,13 +3797,13 @@
         <v>91035</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,13 +3818,13 @@
         <v>21286</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H40" s="7">
         <v>26</v>
@@ -3806,13 +3833,13 @@
         <v>17937</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M40" s="7">
         <v>51</v>
@@ -3821,13 +3848,13 @@
         <v>39223</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,13 +3869,13 @@
         <v>14399</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H41" s="7">
         <v>13</v>
@@ -3857,13 +3884,13 @@
         <v>9300</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M41" s="7">
         <v>29</v>
@@ -3872,13 +3899,13 @@
         <v>23699</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>23</v>
+        <v>291</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,13 +3920,13 @@
         <v>24178</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>83</v>
+        <v>295</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="H42" s="7">
         <v>24</v>
@@ -3908,13 +3935,13 @@
         <v>17770</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="M42" s="7">
         <v>51</v>
@@ -3923,19 +3950,19 @@
         <v>41948</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" s="7">
         <v>22</v>
@@ -3944,13 +3971,13 @@
         <v>19684</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="H43" s="7">
         <v>10</v>
@@ -3959,13 +3986,13 @@
         <v>6494</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>156</v>
+        <v>306</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="M43" s="7">
         <v>32</v>
@@ -3974,19 +4001,19 @@
         <v>26177</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C44" s="7">
         <v>9</v>
@@ -3995,13 +4022,13 @@
         <v>7502</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="H44" s="7">
         <v>3</v>
@@ -4010,13 +4037,13 @@
         <v>1219</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="M44" s="7">
         <v>12</v>
@@ -4025,13 +4052,13 @@
         <v>8721</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4073,13 @@
         <v>137858</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H45" s="7">
         <v>129</v>
@@ -4061,13 +4088,13 @@
         <v>92945</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M45" s="7">
         <v>283</v>
@@ -4076,18 +4103,18 @@
         <v>230803</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4099,13 +4126,13 @@
         <v>172588</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="H46" s="7">
         <v>252</v>
@@ -4114,13 +4141,13 @@
         <v>189432</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="M46" s="7">
         <v>418</v>
@@ -4129,13 +4156,13 @@
         <v>362020</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,13 +4177,13 @@
         <v>82739</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="H47" s="7">
         <v>84</v>
@@ -4165,13 +4192,13 @@
         <v>57658</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="M47" s="7">
         <v>160</v>
@@ -4180,13 +4207,13 @@
         <v>140397</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4228,13 @@
         <v>23962</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="H48" s="7">
         <v>25</v>
@@ -4216,13 +4243,13 @@
         <v>17024</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="M48" s="7">
         <v>43</v>
@@ -4231,13 +4258,13 @@
         <v>40986</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4279,13 @@
         <v>26793</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="H49" s="7">
         <v>36</v>
@@ -4267,13 +4294,13 @@
         <v>26573</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="M49" s="7">
         <v>61</v>
@@ -4282,19 +4309,19 @@
         <v>53365</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>282</v>
+        <v>353</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50" s="7">
         <v>16</v>
@@ -4303,13 +4330,13 @@
         <v>18788</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>247</v>
+        <v>355</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="H50" s="7">
         <v>34</v>
@@ -4318,13 +4345,13 @@
         <v>24119</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>98</v>
+        <v>357</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="M50" s="7">
         <v>50</v>
@@ -4333,19 +4360,19 @@
         <v>42907</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C51" s="7">
         <v>13</v>
@@ -4354,13 +4381,13 @@
         <v>10980</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>221</v>
+        <v>365</v>
       </c>
       <c r="H51" s="7">
         <v>19</v>
@@ -4369,13 +4396,13 @@
         <v>12395</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>356</v>
+        <v>109</v>
       </c>
       <c r="M51" s="7">
         <v>32</v>
@@ -4384,13 +4411,13 @@
         <v>23375</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,13 +4432,13 @@
         <v>335849</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H52" s="7">
         <v>450</v>
@@ -4420,13 +4447,13 @@
         <v>327201</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M52" s="7">
         <v>764</v>
@@ -4435,18 +4462,18 @@
         <v>663050</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
@@ -4458,13 +4485,13 @@
         <v>286136</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="H53" s="7">
         <v>162</v>
@@ -4473,13 +4500,13 @@
         <v>139490</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="M53" s="7">
         <v>358</v>
@@ -4488,13 +4515,13 @@
         <v>425626</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +4536,13 @@
         <v>137769</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="H54" s="7">
         <v>111</v>
@@ -4524,13 +4551,13 @@
         <v>96605</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="M54" s="7">
         <v>228</v>
@@ -4539,13 +4566,13 @@
         <v>234375</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,13 +4587,13 @@
         <v>32113</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>380</v>
+        <v>25</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="H55" s="7">
         <v>55</v>
@@ -4575,13 +4602,13 @@
         <v>45528</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="M55" s="7">
         <v>86</v>
@@ -4590,13 +4617,13 @@
         <v>77641</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>385</v>
+        <v>136</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>156</v>
+        <v>395</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,13 +4638,13 @@
         <v>22565</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>103</v>
+        <v>397</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>388</v>
+        <v>145</v>
       </c>
       <c r="H56" s="7">
         <v>24</v>
@@ -4626,13 +4653,13 @@
         <v>20229</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>112</v>
+        <v>399</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="M56" s="7">
         <v>44</v>
@@ -4641,19 +4668,19 @@
         <v>42795</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>348</v>
+        <v>402</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C57" s="7">
         <v>14</v>
@@ -4662,13 +4689,13 @@
         <v>16759</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="H57" s="7">
         <v>17</v>
@@ -4677,13 +4704,13 @@
         <v>14088</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="M57" s="7">
         <v>31</v>
@@ -4692,19 +4719,19 @@
         <v>30847</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>109</v>
+        <v>411</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C58" s="7">
         <v>6</v>
@@ -4713,13 +4740,13 @@
         <v>7965</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>399</v>
+        <v>38</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="H58" s="7">
         <v>7</v>
@@ -4728,13 +4755,13 @@
         <v>12117</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="M58" s="7">
         <v>13</v>
@@ -4743,13 +4770,13 @@
         <v>20082</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>259</v>
+        <v>419</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +4791,13 @@
         <v>503308</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H59" s="7">
         <v>376</v>
@@ -4779,13 +4806,13 @@
         <v>328058</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M59" s="7">
         <v>760</v>
@@ -4794,13 +4821,13 @@
         <v>831366</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,13 +4844,13 @@
         <v>935672</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="H60" s="7">
         <v>972</v>
@@ -4832,13 +4859,13 @@
         <v>743712</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="M60" s="7">
         <v>1798</v>
@@ -4847,13 +4874,13 @@
         <v>1679384</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,13 +4895,13 @@
         <v>425697</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>416</v>
+        <v>131</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>417</v>
+        <v>137</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="H61" s="7">
         <v>523</v>
@@ -4883,13 +4910,13 @@
         <v>352091</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="M61" s="7">
         <v>944</v>
@@ -4898,13 +4925,13 @@
         <v>777788</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>280</v>
+        <v>434</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,13 +4946,13 @@
         <v>152667</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>155</v>
+        <v>438</v>
       </c>
       <c r="H62" s="7">
         <v>174</v>
@@ -4934,13 +4961,13 @@
         <v>125405</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>426</v>
+        <v>345</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="M62" s="7">
         <v>313</v>
@@ -4949,13 +4976,13 @@
         <v>278072</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>430</v>
+        <v>227</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>104</v>
+        <v>441</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,13 +4997,13 @@
         <v>172515</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="H63" s="7">
         <v>184</v>
@@ -4985,13 +5012,13 @@
         <v>135099</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="M63" s="7">
         <v>336</v>
@@ -5000,19 +5027,19 @@
         <v>307614</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>437</v>
+        <v>391</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C64" s="7">
         <v>88</v>
@@ -5021,13 +5048,13 @@
         <v>96911</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="H64" s="7">
         <v>130</v>
@@ -5036,13 +5063,13 @@
         <v>102250</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="M64" s="7">
         <v>218</v>
@@ -5051,19 +5078,19 @@
         <v>199160</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C65" s="7">
         <v>50</v>
@@ -5072,13 +5099,13 @@
         <v>53049</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="H65" s="7">
         <v>54</v>
@@ -5087,13 +5114,13 @@
         <v>44959</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="M65" s="7">
         <v>104</v>
@@ -5102,13 +5129,13 @@
         <v>98008</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,13 +5150,13 @@
         <v>1836511</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H66" s="7">
         <v>2037</v>
@@ -5138,13 +5165,13 @@
         <v>1503516</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M66" s="7">
         <v>3713</v>
@@ -5153,18 +5180,18 @@
         <v>3340027</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70C2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70C2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B60B7E3-BBBB-440A-BE56-398F7C67C8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25A27ACD-AC0E-442A-BBB6-3AAF268A9FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5968B3F3-8E3C-4FBE-A810-402C0A3135E4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DD8776F8-0A35-4F27-9F62-E78FEC4C62B2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="455">
   <si>
     <t>Población según si le es dificil cumplir con las obligaciones familiares debido al tiempo que paso en el trabajo en 2023 (Tasa respuesta: 42,47%)</t>
   </si>
@@ -71,1369 +71,1333 @@
     <t>Nunca/ casi nunca</t>
   </si>
   <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
   </si>
   <si>
     <t>Con menos frecuencia /raramente</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>Varias veces al año</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>Varias veces al mes</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>Varias veces a la semana</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
   </si>
   <si>
     <t>10,53%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>Varias veces al año</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>Varias veces al mes</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>Varias veces a la semana</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1848,7 +1812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7D9381-B9A6-424D-9086-18D9599B423C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3C812C-2747-4F05-8CFF-F5DACD7EEF91}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1969,7 +1933,7 @@
         <v>179</v>
       </c>
       <c r="D4" s="7">
-        <v>145997</v>
+        <v>174167</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1984,7 +1948,7 @@
         <v>217</v>
       </c>
       <c r="I4" s="7">
-        <v>114468</v>
+        <v>122589</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1999,7 +1963,7 @@
         <v>396</v>
       </c>
       <c r="N4" s="7">
-        <v>260464</v>
+        <v>296755</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2020,7 +1984,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="7">
-        <v>8980</v>
+        <v>11036</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2035,7 +1999,7 @@
         <v>15</v>
       </c>
       <c r="I5" s="7">
-        <v>9147</v>
+        <v>9958</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2050,7 +2014,7 @@
         <v>26</v>
       </c>
       <c r="N5" s="7">
-        <v>18127</v>
+        <v>20995</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2071,7 +2035,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>1866</v>
+        <v>2096</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2086,88 +2050,88 @@
         <v>14</v>
       </c>
       <c r="I6" s="7">
-        <v>6419</v>
+        <v>6750</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>17</v>
       </c>
       <c r="N6" s="7">
-        <v>8284</v>
+        <v>8845</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>6117</v>
+        <v>6902</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>4438</v>
+        <v>4599</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
       </c>
       <c r="N7" s="7">
-        <v>10555</v>
+        <v>11501</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2176,49 +2140,49 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -2227,13 +2191,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2242,13 +2206,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -2257,13 +2221,13 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,51 +2239,51 @@
         <v>202</v>
       </c>
       <c r="D10" s="7">
-        <v>162959</v>
+        <v>194201</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>257</v>
       </c>
       <c r="I10" s="7">
-        <v>134890</v>
+        <v>144332</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>459</v>
       </c>
       <c r="N10" s="7">
-        <v>297849</v>
+        <v>338533</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -2328,46 +2292,46 @@
         <v>85</v>
       </c>
       <c r="D11" s="7">
-        <v>112386</v>
+        <v>109385</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>93</v>
       </c>
       <c r="I11" s="7">
-        <v>75991</v>
+        <v>70859</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>178</v>
       </c>
       <c r="N11" s="7">
-        <v>188377</v>
+        <v>180244</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,46 +2343,46 @@
         <v>22</v>
       </c>
       <c r="D12" s="7">
-        <v>33720</v>
+        <v>34019</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
       </c>
       <c r="I12" s="7">
-        <v>25189</v>
+        <v>23490</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>51</v>
       </c>
       <c r="N12" s="7">
-        <v>58909</v>
+        <v>57509</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,199 +2394,199 @@
         <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>33913</v>
+        <v>35453</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>14279</v>
+        <v>13468</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
       </c>
       <c r="N13" s="7">
-        <v>48192</v>
+        <v>48921</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7">
         <v>31</v>
       </c>
       <c r="D14" s="7">
-        <v>51246</v>
+        <v>51994</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
       </c>
       <c r="I14" s="7">
-        <v>36098</v>
+        <v>33930</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>74</v>
       </c>
       <c r="N14" s="7">
-        <v>87344</v>
+        <v>85925</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="7">
         <v>9</v>
       </c>
       <c r="D15" s="7">
-        <v>9099</v>
+        <v>9200</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>22</v>
       </c>
       <c r="I15" s="7">
-        <v>19188</v>
+        <v>17866</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>31</v>
       </c>
       <c r="N15" s="7">
-        <v>28287</v>
+        <v>27066</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="7">
         <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>6967</v>
+        <v>6689</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
       </c>
       <c r="I16" s="7">
-        <v>9169</v>
+        <v>8456</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
       </c>
       <c r="N16" s="7">
-        <v>16136</v>
+        <v>15145</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,51 +2598,51 @@
         <v>173</v>
       </c>
       <c r="D17" s="7">
-        <v>247330</v>
+        <v>246741</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H17" s="7">
         <v>215</v>
       </c>
       <c r="I17" s="7">
-        <v>179914</v>
+        <v>168068</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M17" s="7">
         <v>388</v>
       </c>
       <c r="N17" s="7">
-        <v>427244</v>
+        <v>414810</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2687,46 +2651,46 @@
         <v>60</v>
       </c>
       <c r="D18" s="7">
-        <v>58456</v>
+        <v>57525</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H18" s="7">
         <v>77</v>
       </c>
       <c r="I18" s="7">
-        <v>62716</v>
+        <v>59085</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M18" s="7">
         <v>137</v>
       </c>
       <c r="N18" s="7">
-        <v>121172</v>
+        <v>116609</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,46 +2702,46 @@
         <v>32</v>
       </c>
       <c r="D19" s="7">
-        <v>34242</v>
+        <v>33904</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
       </c>
       <c r="I19" s="7">
-        <v>21656</v>
+        <v>20350</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
       </c>
       <c r="N19" s="7">
-        <v>55898</v>
+        <v>54254</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,199 +2753,199 @@
         <v>21</v>
       </c>
       <c r="D20" s="7">
-        <v>21463</v>
+        <v>21055</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
       </c>
       <c r="I20" s="7">
-        <v>14561</v>
+        <v>13713</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>40</v>
       </c>
       <c r="N20" s="7">
-        <v>36024</v>
+        <v>34768</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="7">
         <v>17</v>
       </c>
       <c r="D21" s="7">
-        <v>16511</v>
+        <v>16210</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
       </c>
       <c r="I21" s="7">
-        <v>12913</v>
+        <v>12175</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>36</v>
       </c>
       <c r="N21" s="7">
-        <v>29424</v>
+        <v>28385</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" s="7">
         <v>15</v>
       </c>
       <c r="D22" s="7">
-        <v>14095</v>
+        <v>13682</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
       </c>
       <c r="I22" s="7">
-        <v>13737</v>
+        <v>12903</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
       </c>
       <c r="N22" s="7">
-        <v>27832</v>
+        <v>26585</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23" s="7">
         <v>7</v>
       </c>
       <c r="D23" s="7">
-        <v>6395</v>
+        <v>6306</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
       </c>
       <c r="I23" s="7">
-        <v>2811</v>
+        <v>2636</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
       </c>
       <c r="N23" s="7">
-        <v>9205</v>
+        <v>8943</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,51 +2957,51 @@
         <v>152</v>
       </c>
       <c r="D24" s="7">
-        <v>151163</v>
+        <v>148682</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H24" s="7">
         <v>169</v>
       </c>
       <c r="I24" s="7">
-        <v>128393</v>
+        <v>120862</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M24" s="7">
         <v>321</v>
       </c>
       <c r="N24" s="7">
-        <v>279556</v>
+        <v>269543</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3046,46 +3010,46 @@
         <v>65</v>
       </c>
       <c r="D25" s="7">
-        <v>94948</v>
+        <v>92889</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H25" s="7">
         <v>100</v>
       </c>
       <c r="I25" s="7">
-        <v>110464</v>
+        <v>180805</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M25" s="7">
         <v>165</v>
       </c>
       <c r="N25" s="7">
-        <v>205411</v>
+        <v>273694</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,46 +3061,46 @@
         <v>25</v>
       </c>
       <c r="D26" s="7">
-        <v>24209</v>
+        <v>22941</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H26" s="7">
         <v>38</v>
       </c>
       <c r="I26" s="7">
-        <v>31137</v>
+        <v>28903</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>63</v>
       </c>
       <c r="N26" s="7">
-        <v>55345</v>
+        <v>51844</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,199 +3112,199 @@
         <v>7</v>
       </c>
       <c r="D27" s="7">
-        <v>8999</v>
+        <v>8714</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H27" s="7">
         <v>12</v>
       </c>
       <c r="I27" s="7">
-        <v>8921</v>
+        <v>8244</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="M27" s="7">
         <v>19</v>
       </c>
       <c r="N27" s="7">
-        <v>17920</v>
+        <v>16958</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="7">
         <v>10</v>
       </c>
       <c r="D28" s="7">
-        <v>15615</v>
+        <v>14449</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
       </c>
       <c r="I28" s="7">
-        <v>13107</v>
+        <v>11988</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M28" s="7">
         <v>28</v>
       </c>
       <c r="N28" s="7">
-        <v>28721</v>
+        <v>26437</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7">
         <v>9</v>
       </c>
       <c r="D29" s="7">
-        <v>16008</v>
+        <v>15851</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>22</v>
       </c>
       <c r="I29" s="7">
-        <v>22958</v>
+        <v>20592</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>31</v>
       </c>
       <c r="N29" s="7">
-        <v>38965</v>
+        <v>36443</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" s="7">
         <v>10</v>
       </c>
       <c r="D30" s="7">
-        <v>13240</v>
+        <v>12333</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
       </c>
       <c r="I30" s="7">
-        <v>7249</v>
+        <v>6686</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>21</v>
       </c>
       <c r="N30" s="7">
-        <v>20489</v>
+        <v>19019</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,51 +3316,51 @@
         <v>126</v>
       </c>
       <c r="D31" s="7">
-        <v>173018</v>
+        <v>167177</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H31" s="7">
         <v>201</v>
       </c>
       <c r="I31" s="7">
-        <v>193835</v>
+        <v>257218</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M31" s="7">
         <v>327</v>
       </c>
       <c r="N31" s="7">
-        <v>366852</v>
+        <v>424395</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3405,46 +3369,46 @@
         <v>20</v>
       </c>
       <c r="D32" s="7">
-        <v>14351</v>
+        <v>13052</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
       </c>
       <c r="I32" s="7">
-        <v>10927</v>
+        <v>9491</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M32" s="7">
         <v>38</v>
       </c>
       <c r="N32" s="7">
-        <v>25279</v>
+        <v>22543</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,46 +3420,46 @@
         <v>113</v>
       </c>
       <c r="D33" s="7">
-        <v>82752</v>
+        <v>75741</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H33" s="7">
         <v>190</v>
       </c>
       <c r="I33" s="7">
-        <v>92762</v>
+        <v>84397</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M33" s="7">
         <v>303</v>
       </c>
       <c r="N33" s="7">
-        <v>175514</v>
+        <v>160138</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,154 +3471,154 @@
         <v>22</v>
       </c>
       <c r="D34" s="7">
-        <v>15953</v>
+        <v>14628</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H34" s="7">
         <v>18</v>
       </c>
       <c r="I34" s="7">
-        <v>9373</v>
+        <v>8414</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M34" s="7">
         <v>40</v>
       </c>
       <c r="N34" s="7">
-        <v>25327</v>
+        <v>23042</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="7">
         <v>13</v>
       </c>
       <c r="D35" s="7">
-        <v>9491</v>
+        <v>8602</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>248</v>
+        <v>84</v>
       </c>
       <c r="H35" s="7">
         <v>10</v>
       </c>
       <c r="I35" s="7">
-        <v>3971</v>
+        <v>3651</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>251</v>
+        <v>42</v>
       </c>
       <c r="M35" s="7">
         <v>23</v>
       </c>
       <c r="N35" s="7">
-        <v>13462</v>
+        <v>12254</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>153</v>
+        <v>247</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C36" s="7">
         <v>3</v>
       </c>
       <c r="D36" s="7">
-        <v>2479</v>
+        <v>2215</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
       </c>
       <c r="I36" s="7">
-        <v>1247</v>
+        <v>1163</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="M36" s="7">
         <v>7</v>
       </c>
       <c r="N36" s="7">
-        <v>3726</v>
+        <v>3379</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>261</v>
+        <v>158</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -3663,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3678,13 +3642,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3693,13 +3657,13 @@
         <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,51 +3675,51 @@
         <v>171</v>
       </c>
       <c r="D38" s="7">
-        <v>125027</v>
+        <v>114239</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H38" s="7">
         <v>240</v>
       </c>
       <c r="I38" s="7">
-        <v>118281</v>
+        <v>107117</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M38" s="7">
         <v>411</v>
       </c>
       <c r="N38" s="7">
-        <v>243308</v>
+        <v>221356</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3764,46 +3728,46 @@
         <v>55</v>
       </c>
       <c r="D39" s="7">
-        <v>50810</v>
+        <v>49829</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H39" s="7">
         <v>53</v>
       </c>
       <c r="I39" s="7">
-        <v>40225</v>
+        <v>37493</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M39" s="7">
         <v>108</v>
       </c>
       <c r="N39" s="7">
-        <v>91035</v>
+        <v>87322</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,46 +3779,46 @@
         <v>25</v>
       </c>
       <c r="D40" s="7">
-        <v>21286</v>
+        <v>20516</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H40" s="7">
         <v>26</v>
       </c>
       <c r="I40" s="7">
-        <v>17937</v>
+        <v>16725</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M40" s="7">
         <v>51</v>
       </c>
       <c r="N40" s="7">
-        <v>39223</v>
+        <v>37241</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,199 +3830,199 @@
         <v>16</v>
       </c>
       <c r="D41" s="7">
-        <v>14399</v>
+        <v>14133</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H41" s="7">
         <v>13</v>
       </c>
       <c r="I41" s="7">
-        <v>9300</v>
+        <v>8628</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M41" s="7">
         <v>29</v>
       </c>
       <c r="N41" s="7">
-        <v>23699</v>
+        <v>22761</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="7">
         <v>27</v>
       </c>
       <c r="D42" s="7">
-        <v>24178</v>
+        <v>23378</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H42" s="7">
         <v>24</v>
       </c>
       <c r="I42" s="7">
-        <v>17770</v>
+        <v>16382</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M42" s="7">
         <v>51</v>
       </c>
       <c r="N42" s="7">
-        <v>41948</v>
+        <v>39760</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" s="7">
         <v>22</v>
       </c>
       <c r="D43" s="7">
-        <v>19684</v>
+        <v>19081</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H43" s="7">
         <v>10</v>
       </c>
       <c r="I43" s="7">
-        <v>6494</v>
+        <v>6017</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M43" s="7">
         <v>32</v>
       </c>
       <c r="N43" s="7">
-        <v>26177</v>
+        <v>25098</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>138</v>
+        <v>303</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C44" s="7">
         <v>9</v>
       </c>
       <c r="D44" s="7">
-        <v>7502</v>
+        <v>7357</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H44" s="7">
         <v>3</v>
       </c>
       <c r="I44" s="7">
-        <v>1219</v>
+        <v>1156</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>316</v>
+        <v>25</v>
       </c>
       <c r="M44" s="7">
         <v>12</v>
       </c>
       <c r="N44" s="7">
-        <v>8721</v>
+        <v>8513</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>113</v>
+        <v>311</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,51 +4034,51 @@
         <v>154</v>
       </c>
       <c r="D45" s="7">
-        <v>137858</v>
+        <v>134294</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H45" s="7">
         <v>129</v>
       </c>
       <c r="I45" s="7">
-        <v>92945</v>
+        <v>86402</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M45" s="7">
         <v>283</v>
       </c>
       <c r="N45" s="7">
-        <v>230803</v>
+        <v>220696</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4123,46 +4087,46 @@
         <v>166</v>
       </c>
       <c r="D46" s="7">
-        <v>172588</v>
+        <v>170016</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H46" s="7">
         <v>252</v>
       </c>
       <c r="I46" s="7">
-        <v>189432</v>
+        <v>177918</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M46" s="7">
         <v>418</v>
       </c>
       <c r="N46" s="7">
-        <v>362020</v>
+        <v>347933</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,46 +4138,46 @@
         <v>76</v>
       </c>
       <c r="D47" s="7">
-        <v>82739</v>
+        <v>85518</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H47" s="7">
         <v>84</v>
       </c>
       <c r="I47" s="7">
-        <v>57658</v>
+        <v>53955</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="M47" s="7">
         <v>160</v>
       </c>
       <c r="N47" s="7">
-        <v>140397</v>
+        <v>139473</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,199 +4189,199 @@
         <v>18</v>
       </c>
       <c r="D48" s="7">
-        <v>23962</v>
+        <v>23613</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>339</v>
+        <v>205</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H48" s="7">
         <v>25</v>
       </c>
       <c r="I48" s="7">
-        <v>17024</v>
+        <v>16022</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>187</v>
+        <v>335</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>342</v>
+        <v>189</v>
       </c>
       <c r="M48" s="7">
         <v>43</v>
       </c>
       <c r="N48" s="7">
-        <v>40986</v>
+        <v>39635</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C49" s="7">
         <v>25</v>
       </c>
       <c r="D49" s="7">
-        <v>26793</v>
+        <v>26253</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>346</v>
+        <v>238</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="H49" s="7">
         <v>36</v>
       </c>
       <c r="I49" s="7">
-        <v>26573</v>
+        <v>24702</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>349</v>
+        <v>236</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>350</v>
+        <v>107</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="M49" s="7">
         <v>61</v>
       </c>
       <c r="N49" s="7">
-        <v>53365</v>
+        <v>50955</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50" s="7">
         <v>16</v>
       </c>
       <c r="D50" s="7">
-        <v>18788</v>
+        <v>18198</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>217</v>
+        <v>346</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="H50" s="7">
         <v>34</v>
       </c>
       <c r="I50" s="7">
-        <v>24119</v>
+        <v>22664</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>357</v>
+        <v>207</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>358</v>
+        <v>159</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="M50" s="7">
         <v>50</v>
       </c>
       <c r="N50" s="7">
-        <v>42907</v>
+        <v>40862</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" s="7">
         <v>13</v>
       </c>
       <c r="D51" s="7">
-        <v>10980</v>
+        <v>10704</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>365</v>
+        <v>107</v>
       </c>
       <c r="H51" s="7">
         <v>19</v>
       </c>
       <c r="I51" s="7">
-        <v>12395</v>
+        <v>11663</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="M51" s="7">
         <v>32</v>
       </c>
       <c r="N51" s="7">
-        <v>23375</v>
+        <v>22366</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,51 +4393,51 @@
         <v>314</v>
       </c>
       <c r="D52" s="7">
-        <v>335849</v>
+        <v>334301</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H52" s="7">
         <v>450</v>
       </c>
       <c r="I52" s="7">
-        <v>327201</v>
+        <v>306924</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M52" s="7">
         <v>764</v>
       </c>
       <c r="N52" s="7">
-        <v>663050</v>
+        <v>641224</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
@@ -4482,46 +4446,46 @@
         <v>196</v>
       </c>
       <c r="D53" s="7">
-        <v>286136</v>
+        <v>442658</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="H53" s="7">
         <v>162</v>
       </c>
       <c r="I53" s="7">
-        <v>139490</v>
+        <v>115824</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="M53" s="7">
         <v>358</v>
       </c>
       <c r="N53" s="7">
-        <v>425626</v>
+        <v>558482</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,46 +4497,46 @@
         <v>117</v>
       </c>
       <c r="D54" s="7">
-        <v>137769</v>
+        <v>115925</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="H54" s="7">
         <v>111</v>
       </c>
       <c r="I54" s="7">
-        <v>96605</v>
+        <v>80274</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="M54" s="7">
         <v>228</v>
       </c>
       <c r="N54" s="7">
-        <v>234375</v>
+        <v>196198</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,199 +4548,199 @@
         <v>31</v>
       </c>
       <c r="D55" s="7">
-        <v>32113</v>
+        <v>27380</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>25</v>
+        <v>380</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="H55" s="7">
         <v>55</v>
       </c>
       <c r="I55" s="7">
-        <v>45528</v>
+        <v>37908</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="M55" s="7">
         <v>86</v>
       </c>
       <c r="N55" s="7">
-        <v>77641</v>
+        <v>65288</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>136</v>
+        <v>385</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>396</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C56" s="7">
         <v>20</v>
       </c>
       <c r="D56" s="7">
-        <v>22565</v>
+        <v>19119</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>145</v>
+        <v>389</v>
       </c>
       <c r="H56" s="7">
         <v>24</v>
       </c>
       <c r="I56" s="7">
-        <v>20229</v>
+        <v>16845</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="M56" s="7">
         <v>44</v>
       </c>
       <c r="N56" s="7">
-        <v>42795</v>
+        <v>35964</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>402</v>
+        <v>187</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C57" s="7">
         <v>14</v>
       </c>
       <c r="D57" s="7">
-        <v>16759</v>
+        <v>14202</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="H57" s="7">
         <v>17</v>
       </c>
       <c r="I57" s="7">
-        <v>14088</v>
+        <v>11774</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="M57" s="7">
         <v>31</v>
       </c>
       <c r="N57" s="7">
-        <v>30847</v>
+        <v>25977</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C58" s="7">
         <v>6</v>
       </c>
       <c r="D58" s="7">
-        <v>7965</v>
+        <v>6833</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>38</v>
+        <v>253</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>414</v>
+        <v>307</v>
       </c>
       <c r="H58" s="7">
         <v>7</v>
       </c>
       <c r="I58" s="7">
-        <v>12117</v>
+        <v>9386</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>416</v>
+        <v>106</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="M58" s="7">
         <v>13</v>
       </c>
       <c r="N58" s="7">
-        <v>20082</v>
+        <v>16219</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>353</v>
+        <v>409</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,46 +4752,46 @@
         <v>384</v>
       </c>
       <c r="D59" s="7">
-        <v>503308</v>
+        <v>626117</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H59" s="7">
         <v>376</v>
       </c>
       <c r="I59" s="7">
-        <v>328058</v>
+        <v>272011</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M59" s="7">
         <v>760</v>
       </c>
       <c r="N59" s="7">
-        <v>831366</v>
+        <v>898128</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,46 +4805,46 @@
         <v>826</v>
       </c>
       <c r="D60" s="7">
-        <v>935672</v>
+        <v>1109519</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="H60" s="7">
         <v>972</v>
       </c>
       <c r="I60" s="7">
-        <v>743712</v>
+        <v>774064</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="M60" s="7">
         <v>1798</v>
       </c>
       <c r="N60" s="7">
-        <v>1679384</v>
+        <v>1883584</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,46 +4856,46 @@
         <v>421</v>
       </c>
       <c r="D61" s="7">
-        <v>425697</v>
+        <v>399600</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>131</v>
+        <v>418</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>137</v>
+        <v>419</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="H61" s="7">
         <v>523</v>
       </c>
       <c r="I61" s="7">
-        <v>352091</v>
+        <v>318053</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="M61" s="7">
         <v>944</v>
       </c>
       <c r="N61" s="7">
-        <v>777788</v>
+        <v>717653</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>435</v>
+        <v>296</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,199 +4907,199 @@
         <v>139</v>
       </c>
       <c r="D62" s="7">
-        <v>152667</v>
+        <v>147073</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="H62" s="7">
         <v>174</v>
       </c>
       <c r="I62" s="7">
-        <v>125405</v>
+        <v>113146</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>345</v>
+        <v>429</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="M62" s="7">
         <v>313</v>
       </c>
       <c r="N62" s="7">
-        <v>278072</v>
+        <v>260219</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>227</v>
+        <v>433</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C63" s="7">
         <v>152</v>
       </c>
       <c r="D63" s="7">
-        <v>172515</v>
+        <v>166908</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="H63" s="7">
         <v>184</v>
       </c>
       <c r="I63" s="7">
-        <v>135099</v>
+        <v>124273</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>446</v>
+        <v>24</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="M63" s="7">
         <v>336</v>
       </c>
       <c r="N63" s="7">
-        <v>307614</v>
+        <v>291181</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>226</v>
+        <v>439</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C64" s="7">
         <v>88</v>
       </c>
       <c r="D64" s="7">
-        <v>96911</v>
+        <v>92429</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="H64" s="7">
         <v>130</v>
       </c>
       <c r="I64" s="7">
-        <v>102250</v>
+        <v>93416</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="M64" s="7">
         <v>218</v>
       </c>
       <c r="N64" s="7">
-        <v>199160</v>
+        <v>185845</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C65" s="7">
         <v>50</v>
       </c>
       <c r="D65" s="7">
-        <v>53049</v>
+        <v>50223</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>458</v>
+        <v>194</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>459</v>
+        <v>357</v>
       </c>
       <c r="H65" s="7">
         <v>54</v>
       </c>
       <c r="I65" s="7">
-        <v>44959</v>
+        <v>39982</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>461</v>
+        <v>46</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="M65" s="7">
         <v>104</v>
       </c>
       <c r="N65" s="7">
-        <v>98008</v>
+        <v>90205</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>464</v>
+        <v>312</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,51 +5111,51 @@
         <v>1676</v>
       </c>
       <c r="D66" s="7">
-        <v>1836511</v>
+        <v>1965751</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H66" s="7">
         <v>2037</v>
       </c>
       <c r="I66" s="7">
-        <v>1503516</v>
+        <v>1462935</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M66" s="7">
         <v>3713</v>
       </c>
       <c r="N66" s="7">
-        <v>3340027</v>
+        <v>3428686</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
